--- a/03_複数シート同時編集/テストデータ.xlsx
+++ b/03_複数シート同時編集/テストデータ.xlsx
@@ -714,6 +714,13 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="B5" s="4" t="inlineStr">
         <is>

--- a/03_複数シート同時編集/テストデータ.xlsx
+++ b/03_複数シート同時編集/テストデータ.xlsx
@@ -3,32 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8310" windowWidth="8025" xWindow="9150" yWindow="6375"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8370" windowWidth="20385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="TableAnchor">[1]!リスト[[#Headers],[完了]]</definedName>
+    <definedName name="TableAnchor">tf03427477_win321!リスト[[#Headers],[完了]]</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00" numFmtId="164"/>
-    <numFmt formatCode="[&lt;=9999999]###\-####;###\-###\-####" numFmtId="165"/>
+  <numFmts count="5">
+    <numFmt formatCode="[&lt;=9999999]###\-####;###\-###\-####" numFmtId="164"/>
+    <numFmt formatCode="&quot;\&quot;#,##0.00;&quot;\&quot;\-#,##0.00" numFmtId="165"/>
+    <numFmt formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-" numFmtId="166"/>
+    <numFmt formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-" numFmtId="167"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="168"/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+  <fonts count="28">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -36,7 +36,17 @@
     <font>
       <name val="Meiryo UI"/>
       <charset val="128"/>
-      <family val="2"/>
+      <color theme="0" tint="-0.0499893185216834"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="11"/>
@@ -44,61 +54,180 @@
     <font>
       <name val="Meiryo UI"/>
       <charset val="128"/>
-      <family val="3"/>
+      <color theme="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Meiryo UI"/>
       <charset val="128"/>
-      <family val="2"/>
+      <b val="1"/>
       <color theme="3"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Meiryo UI"/>
       <charset val="128"/>
-      <family val="3"/>
       <color theme="3"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Meiryo UI"/>
       <charset val="128"/>
-      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <color theme="0" tint="-0.0499893185216834"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -107,24 +236,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.0499893185216834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -132,76 +447,362 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+  <cellStyleXfs count="53">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="26" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="168">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="27" numFmtId="7">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="7">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="35" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="11"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="18">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="52">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="18">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="標準" xfId="0"/>
-    <cellStyle name="品目" xfId="1"/>
-    <cellStyle name="白色の背景" xfId="2"/>
-    <cellStyle name="ユーザー設定の通貨" xfId="3"/>
-    <cellStyle name="インデント" xfId="4"/>
-    <cellStyle builtinId="8" name="ハイパーリンク" xfId="5"/>
+  <cellStyles count="53">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle name="白色の背景" xfId="11"/>
+    <cellStyle builtinId="5" name="百分比" xfId="12"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="13"/>
+    <cellStyle builtinId="10" name="注释" xfId="14"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="15"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="16"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="17"/>
+    <cellStyle name="ユーザー設定の通貨" xfId="18"/>
+    <cellStyle builtinId="15" name="标题" xfId="19"/>
+    <cellStyle name="品目" xfId="20"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="21"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="22"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="23"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="25"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle builtinId="21" name="输出" xfId="27"/>
+    <cellStyle builtinId="22" name="计算" xfId="28"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="29"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="31"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="32"/>
+    <cellStyle builtinId="25" name="汇总" xfId="33"/>
+    <cellStyle builtinId="26" name="好" xfId="34"/>
+    <cellStyle builtinId="28" name="适中" xfId="35"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="36"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="37"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="38"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="39"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="40"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="41"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="42"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="43"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="44"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="45"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="46"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="47"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="48"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="49"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="50"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="51"/>
+    <cellStyle name="インデント" xfId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -277,23 +878,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="食料品リスト"/>
-      <sheetName val="計算"/>
-      <sheetName val="tf03427477_win321"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData refreshError="1" sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,7 +1159,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -591,7 +1174,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -611,76 +1194,81 @@
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2">
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="9" t="n"/>
+      <c r="D2" s="9" t="n"/>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="n"/>
       <c r="G2" s="12" t="n"/>
       <c r="H2" s="12" t="n"/>
-      <c r="I2" s="3" t="n"/>
+      <c r="I2" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="3">
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
+      <c r="B3" s="8" t="n"/>
+      <c r="C3" s="9" t="n"/>
+      <c r="D3" s="9" t="n"/>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="9" t="n"/>
       <c r="G3" s="12" t="n"/>
       <c r="H3" s="12" t="n"/>
-      <c r="I3" s="3" t="n"/>
+      <c r="I3" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="4">
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>hrt</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="C4" s="9" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
       <c r="G4" s="12" t="n"/>
       <c r="H4" s="12" t="n"/>
-      <c r="I4" s="3" t="n"/>
+      <c r="I4" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="5">
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>4894</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
-      <c r="I5" s="3" t="n"/>
+      <c r="I5" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="6">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n"/>
       <c r="H6" s="12" t="n"/>
-      <c r="I6" s="3" t="n"/>
+      <c r="I6" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="7">
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
       <c r="G7" s="12" t="n"/>
       <c r="H7" s="12" t="n"/>
-      <c r="I7" s="3" t="n"/>
+      <c r="I7" s="11" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I7">
@@ -699,22 +1287,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>202010</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>555</t>
@@ -722,64 +1308,64 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>顧客 ID</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>4894</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>連絡先</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>連絡先のタイプ</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>電話</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>携帯電話</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>FAX</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>電子メール</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>CU0001</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>ヒロコーポレーション</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>小熊 一之</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>個人</t>
         </is>
@@ -806,22 +1392,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>CU0002</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>ポム・ド・テール</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>若本 喜一</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>法人</t>
         </is>
@@ -841,29 +1427,29 @@
           <t>03-1111-2233</t>
         </is>
       </c>
-      <c r="I7" s="8" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>yoshikazu@example.microsoft.com</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>CU0003</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>茶畑ショップ</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>吉村 和佳</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>個人</t>
         </is>
@@ -890,22 +1476,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>CU0004</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>摂津商事株式会社</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>久保田 千絵</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>法人</t>
         </is>
@@ -925,29 +1511,29 @@
           <t>03-1111-4455</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr">
         <is>
           <t>chie@example.microsoft.com</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>CU0005</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>宮株式会社</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>清岡 裕美子</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>法人</t>
         </is>
@@ -974,22 +1560,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>CU0006</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>早稲田フードサービス</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>菅野 可代子</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>法人</t>
         </is>
@@ -1009,29 +1595,29 @@
           <t>03-1111-6677</t>
         </is>
       </c>
-      <c r="I11" s="8" t="inlineStr">
+      <c r="I11" s="7" t="inlineStr">
         <is>
           <t>kayoko@example.microsoft.com</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>CU0007</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>雪花ガーデン</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>田本 千賀</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>法人</t>
         </is>
@@ -1058,22 +1644,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>CU0008</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>谷津坂商店株式会社</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>立野 誠一</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>法人</t>
         </is>
@@ -1093,16 +1679,16 @@
           <t>03-1111-8899</t>
         </is>
       </c>
-      <c r="I13" s="8" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
         <is>
           <t>seiichi@example.microsoft.com</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1" disablePrompts="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="0" prompt="xxx@xxx.xxx" promptTitle="電子メール アドレス" showErrorMessage="1" showInputMessage="1" sqref="I6:I13"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>